--- a/TestData/secondFlow/changeTargetType.xlsx
+++ b/TestData/secondFlow/changeTargetType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\secondFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF35170-7312-475E-8D41-9F3DC542756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1C1EE-3D12-4630-A13F-5D91ABF7B90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2700" windowWidth="18756" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Wave Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Image Name</t>
   </si>
   <si>
-    <t>Host Number In Wave</t>
-  </si>
-  <si>
     <t>Second Flow</t>
   </si>
   <si>
@@ -72,12 +69,6 @@
     <t>psp-MyWinSecondFlow-tgt2</t>
   </si>
   <si>
-    <t>172.29.30.132</t>
-  </si>
-  <si>
-    <t>172.29.30.134</t>
-  </si>
-  <si>
     <t>Second Flow 1</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
     <t>psp-MyLinSecondFlow-tgt1</t>
   </si>
   <si>
-    <t>172.29.30.141</t>
-  </si>
-  <si>
-    <t>172.29.30.203</t>
-  </si>
-  <si>
     <t>User Name</t>
   </si>
   <si>
@@ -112,13 +97,40 @@
   </si>
   <si>
     <t>root</t>
+  </si>
+  <si>
+    <t>Host Name In Wave</t>
+  </si>
+  <si>
+    <t>psp-MyLinSecondFlow-src1</t>
+  </si>
+  <si>
+    <t>psp-MyLinSecondFlow-src2</t>
+  </si>
+  <si>
+    <t>psp-MyWinSecondFlow-src1</t>
+  </si>
+  <si>
+    <t>psp-MyWinSecondFlow-src2</t>
+  </si>
+  <si>
+    <t>172.29.30.155</t>
+  </si>
+  <si>
+    <t>172.29.30.218</t>
+  </si>
+  <si>
+    <t>172.29.30.219</t>
+  </si>
+  <si>
+    <t>172.29.30.156</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +148,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,9 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,19 +474,20 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I6:I7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -467,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -476,157 +504,157 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>16</v>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
